--- a/fixtures/download_template/drilling_and_construction.xlsx
+++ b/fixtures/download_template/drilling_and_construction.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve"> Total depth</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Drilling method</t>
   </si>
   <si>
@@ -52,22 +55,49 @@
     <t xml:space="preserve">The original ID of the groundwater point.</t>
   </si>
   <si>
-    <t xml:space="preserve">Installer</t>
+    <t xml:space="preserve">Unit must be either:
+• m
+• ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the following:
+• Auger drilling
+• Cable tool drilling
+• Down-the-hole drilling
+• Drilled (specific method unknown)
+• Hand-dug
+• Rotary drilling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the following:
+• Yes
+• No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date as yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installer (open text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description (open text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From</t>
+    <t xml:space="preserve">Value (only numbers allowed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From (one of the following):
+• Top of borehole
+• Ground surface level ASL</t>
   </si>
   <si>
     <t xml:space="preserve">Reference Elevation</t>
@@ -85,10 +115,31 @@
     <t xml:space="preserve">Stratigraphic unit</t>
   </si>
   <si>
+    <t xml:space="preserve">One of the following:
+• Top of borehole
+• Ground surface level ASL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (number)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the following:
+• Casing
+• Screen
+• Open interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit must be either:
+• m
+• cm
+• ft
+• inch</t>
   </si>
 </sst>
 </file>
@@ -320,20 +371,20 @@
     <tabColor rgb="FF953735"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="15.71"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -355,38 +406,52 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AMJ1" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" s="6" customFormat="true" ht="159.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AMJ2" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -407,7 +472,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,16 +488,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
@@ -442,18 +507,20 @@
     </row>
     <row r="2" s="6" customFormat="true" ht="159.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5"/>
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
@@ -483,7 +550,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
@@ -526,23 +593,29 @@
     </row>
     <row r="2" s="6" customFormat="true" ht="159.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -571,7 +644,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,62 +660,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="true" ht="159.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
